--- a/data/3bdy_adapt.xlsx
+++ b/data/3bdy_adapt.xlsx
@@ -206,7 +206,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -304,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="41">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
